--- a/reportes/Concentado_RegimenPMDetalle.xlsx
+++ b/reportes/Concentado_RegimenPMDetalle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dtax\reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB4AF1F-0E62-43B3-B84A-E22BC164B6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA7077A-FF12-4B3A-AE78-3F5038EE2F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FBB98AF2-431E-4F5B-9F5C-FA07346B18A9}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">datos!$B$1:$L$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">datos!$B$1:$M$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Ejercicio Fiscal</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Meses</t>
   </si>
   <si>
-    <t>Ret.Serv. Prof. Y arrendamiento</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -176,6 +173,12 @@
   </si>
   <si>
     <t>Totales</t>
+  </si>
+  <si>
+    <t>Ret. ISR Serv. Prof.</t>
+  </si>
+  <si>
+    <t>Ret. ISR  Arrendamiento</t>
   </si>
 </sst>
 </file>
@@ -379,7 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -426,6 +429,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -435,14 +446,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
     <dxf>
       <font>
         <b val="0"/>
@@ -754,6 +763,37 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -869,6 +909,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1194,19 +1269,19 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2" t="str">
-            <v xml:space="preserve"> RST080530H18</v>
+            <v xml:space="preserve"> GAS150806T54</v>
           </cell>
           <cell r="C2" t="str">
-            <v>LA RIBERA STORAGE S DE RL DE CV</v>
+            <v>GURGO Y ASOCIADOS. S.C.</v>
           </cell>
           <cell r="H2" t="str">
             <v>Personas Morales Titulo II</v>
           </cell>
           <cell r="L2">
-            <v>2022</v>
+            <v>2019</v>
           </cell>
           <cell r="M2">
-            <v>2021</v>
+            <v>2019</v>
           </cell>
         </row>
       </sheetData>
@@ -1301,78 +1376,78 @@
         </row>
         <row r="171">
           <cell r="E171">
-            <v>0</v>
+            <v>81617.676800000001</v>
           </cell>
           <cell r="F171">
-            <v>0</v>
+            <v>86.220699999999994</v>
           </cell>
           <cell r="G171">
-            <v>0</v>
+            <v>45198.777900000001</v>
           </cell>
           <cell r="H171">
-            <v>0</v>
+            <v>23910.609499999999</v>
           </cell>
           <cell r="I171">
-            <v>0</v>
+            <v>13889.177600000001</v>
           </cell>
           <cell r="J171">
-            <v>0</v>
+            <v>13609.628000000001</v>
           </cell>
           <cell r="K171">
-            <v>0</v>
+            <v>21748.3884</v>
           </cell>
           <cell r="L171">
-            <v>0</v>
+            <v>67043.106199999995</v>
           </cell>
           <cell r="M171">
-            <v>0</v>
+            <v>13160.8236</v>
           </cell>
           <cell r="N171">
-            <v>0</v>
+            <v>69458.173999999999</v>
           </cell>
           <cell r="O171">
-            <v>0</v>
+            <v>151770.85800000001</v>
           </cell>
           <cell r="P171">
-            <v>0</v>
+            <v>28477.675800000001</v>
           </cell>
         </row>
         <row r="197">
           <cell r="E197">
-            <v>589.07230000000004</v>
+            <v>1064.7663</v>
           </cell>
           <cell r="F197">
-            <v>251.4083</v>
+            <v>690.44290000000001</v>
           </cell>
           <cell r="G197">
-            <v>567.62490000000003</v>
+            <v>1174.3661</v>
           </cell>
           <cell r="H197">
-            <v>344.4033</v>
+            <v>7217.2808000000005</v>
           </cell>
           <cell r="I197">
-            <v>339.74450000000002</v>
+            <v>1152.539</v>
           </cell>
           <cell r="J197">
-            <v>334.01729999999998</v>
+            <v>1036.0111999999999</v>
           </cell>
           <cell r="K197">
-            <v>532.98019999999997</v>
+            <v>1123.0779</v>
           </cell>
           <cell r="L197">
-            <v>8.0404</v>
+            <v>1111.0780999999999</v>
           </cell>
           <cell r="M197">
-            <v>0</v>
+            <v>996.46100000000001</v>
           </cell>
           <cell r="N197">
-            <v>0</v>
+            <v>1077.9935</v>
           </cell>
           <cell r="O197">
-            <v>0</v>
+            <v>969.03710000000001</v>
           </cell>
           <cell r="P197">
-            <v>0</v>
+            <v>1303.7076</v>
           </cell>
         </row>
         <row r="201">
@@ -1395,171 +1470,209 @@
             <v>0</v>
           </cell>
           <cell r="K201">
-            <v>408.32010000000002</v>
+            <v>0</v>
           </cell>
           <cell r="M201">
-            <v>790.83600000000001</v>
+            <v>0</v>
           </cell>
           <cell r="N201">
-            <v>387.34570000000002</v>
+            <v>0</v>
           </cell>
           <cell r="O201">
-            <v>1134.8623</v>
+            <v>0</v>
           </cell>
           <cell r="P201">
-            <v>372.23590000000002</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="231">
           <cell r="E231">
-            <v>0</v>
+            <v>54929.437400000003</v>
           </cell>
           <cell r="F231">
-            <v>0</v>
+            <v>20630.541799999999</v>
           </cell>
           <cell r="G231">
-            <v>0</v>
+            <v>18429.2412</v>
           </cell>
           <cell r="H231">
-            <v>0</v>
+            <v>34984.024899999997</v>
           </cell>
           <cell r="I231">
-            <v>0</v>
+            <v>11840.235500000001</v>
           </cell>
           <cell r="J231">
-            <v>0</v>
+            <v>15692.823899999999</v>
           </cell>
           <cell r="K231">
-            <v>2645.2334999999998</v>
+            <v>20310.458999999999</v>
           </cell>
           <cell r="L231">
-            <v>0</v>
+            <v>32457.625199999999</v>
           </cell>
           <cell r="M231">
-            <v>0</v>
+            <v>18338.8822</v>
           </cell>
           <cell r="N231">
-            <v>0</v>
+            <v>49124.339200000002</v>
           </cell>
           <cell r="O231">
-            <v>0</v>
+            <v>18407.787400000001</v>
           </cell>
           <cell r="P231">
-            <v>0</v>
+            <v>24271.841799999998</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="E235">
+            <v>0</v>
+          </cell>
+          <cell r="F235">
+            <v>0</v>
+          </cell>
+          <cell r="G235">
+            <v>0</v>
+          </cell>
+          <cell r="H235">
+            <v>0</v>
+          </cell>
+          <cell r="I235">
+            <v>0</v>
+          </cell>
+          <cell r="J235">
+            <v>0</v>
+          </cell>
+          <cell r="K235">
+            <v>0</v>
+          </cell>
+          <cell r="L235">
+            <v>0</v>
+          </cell>
+          <cell r="M235">
+            <v>3018.7372</v>
+          </cell>
+          <cell r="N235">
+            <v>2969.0073000000002</v>
+          </cell>
+          <cell r="O235">
+            <v>2935.6578</v>
+          </cell>
+          <cell r="P235">
+            <v>2902.3083999999999</v>
           </cell>
         </row>
         <row r="254">
           <cell r="E254">
-            <v>0</v>
+            <v>58625.784099999997</v>
           </cell>
           <cell r="F254">
-            <v>0</v>
+            <v>22005.774700000002</v>
           </cell>
           <cell r="G254">
-            <v>0</v>
+            <v>19657.769</v>
           </cell>
           <cell r="H254">
-            <v>0</v>
+            <v>37316.078800000003</v>
           </cell>
           <cell r="I254">
-            <v>0</v>
+            <v>12651.4962</v>
           </cell>
           <cell r="J254">
-            <v>0</v>
+            <v>16738.8586</v>
           </cell>
           <cell r="K254">
-            <v>2821.5868999999998</v>
+            <v>21669.989099999999</v>
           </cell>
           <cell r="L254">
-            <v>0</v>
+            <v>34621.274299999997</v>
           </cell>
           <cell r="M254">
-            <v>0</v>
+            <v>22788.465400000001</v>
           </cell>
           <cell r="N254">
-            <v>0</v>
+            <v>55571.184699999998</v>
           </cell>
           <cell r="O254">
-            <v>0</v>
+            <v>22766.2016</v>
           </cell>
           <cell r="P254">
-            <v>0</v>
+            <v>28985.647499999999</v>
           </cell>
         </row>
         <row r="266">
           <cell r="E266">
-            <v>424.3793</v>
+            <v>0</v>
           </cell>
           <cell r="F266">
-            <v>377.56099999999998</v>
+            <v>0</v>
           </cell>
           <cell r="G266">
-            <v>411.03829999999999</v>
+            <v>0</v>
           </cell>
           <cell r="H266">
-            <v>392.6318</v>
+            <v>0</v>
           </cell>
           <cell r="I266">
-            <v>387.8501</v>
+            <v>0</v>
           </cell>
           <cell r="J266">
-            <v>382.05579999999998</v>
+            <v>0</v>
           </cell>
           <cell r="K266">
-            <v>522.33920000000001</v>
+            <v>0</v>
           </cell>
           <cell r="L266">
-            <v>277.02210000000002</v>
+            <v>0</v>
           </cell>
           <cell r="M266">
-            <v>138.04060000000001</v>
+            <v>0</v>
           </cell>
           <cell r="N266">
-            <v>140.0283</v>
+            <v>0</v>
           </cell>
           <cell r="O266">
-            <v>507.0718</v>
+            <v>0</v>
           </cell>
           <cell r="P266">
-            <v>257.99160000000001</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="278">
           <cell r="E278">
-            <v>1857.1741</v>
+            <v>0</v>
           </cell>
           <cell r="F278">
-            <v>1351.3185000000001</v>
+            <v>0</v>
           </cell>
           <cell r="G278">
-            <v>2288.4584</v>
+            <v>0</v>
           </cell>
           <cell r="H278">
-            <v>2865.9501</v>
+            <v>0</v>
           </cell>
           <cell r="I278">
-            <v>3081.4969000000001</v>
+            <v>0</v>
           </cell>
           <cell r="J278">
-            <v>2973.8892999999998</v>
+            <v>0</v>
           </cell>
           <cell r="K278">
-            <v>3551.8456999999999</v>
+            <v>0</v>
           </cell>
           <cell r="L278">
-            <v>1237.3982000000001</v>
+            <v>0</v>
           </cell>
           <cell r="M278">
-            <v>3181.8892999999998</v>
+            <v>0</v>
           </cell>
           <cell r="N278">
-            <v>2731.5958000000001</v>
+            <v>0</v>
           </cell>
           <cell r="O278">
-            <v>4234.8782000000001</v>
+            <v>0</v>
           </cell>
           <cell r="P278">
-            <v>2762.8373999999999</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1569,47 +1682,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A3912AE-011E-423C-9668-9AE78F11ECB4}" name="Tabla1" displayName="Tabla1" ref="B9:L22" totalsRowCount="1" headerRowDxfId="23" tableBorderDxfId="22">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{E771A5DE-A390-4669-8959-1624D0AD1659}" name="Meses" totalsRowLabel="Totales" dataDxfId="21" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{B82D729C-0155-4DE7-A50D-39CCEFB72BC9}" name="ISR Propio" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="9" dataCellStyle="Moneda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A3912AE-011E-423C-9668-9AE78F11ECB4}" name="Tabla1" displayName="Tabla1" ref="B9:M22" totalsRowCount="1" headerRowDxfId="25" tableBorderDxfId="24">
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{E771A5DE-A390-4669-8959-1624D0AD1659}" name="Meses" totalsRowLabel="Totales" dataDxfId="23" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B82D729C-0155-4DE7-A50D-39CCEFB72BC9}" name="ISR Propio" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="10" dataCellStyle="Moneda">
       <calculatedColumnFormula>+[2]calculos!$E$55</calculatedColumnFormula>
       <totalsRowFormula>SUM(C10:C21)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5DEF5FC0-9252-4B12-A4EA-4801BBA76D97}" name="IETU Propio" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="8" dataCellStyle="Moneda">
+    <tableColumn id="3" xr3:uid="{5DEF5FC0-9252-4B12-A4EA-4801BBA76D97}" name="IETU Propio" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="9" dataCellStyle="Moneda">
       <calculatedColumnFormula>+[2]calculos!$F$119</calculatedColumnFormula>
       <totalsRowFormula>SUM(D10:D21)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A2A79F0E-9A90-4B10-9048-6F9EBB12B29A}" name="IVA Propio" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="7" dataCellStyle="Moneda">
+    <tableColumn id="4" xr3:uid="{A2A79F0E-9A90-4B10-9048-6F9EBB12B29A}" name="IVA Propio" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="8" dataCellStyle="Moneda">
       <calculatedColumnFormula>+[2]calculos!$E$171</calculatedColumnFormula>
       <totalsRowFormula>SUM(E10:E21)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DC8949A3-6322-4E9B-904A-8266A7B5B3F9}" name="Ret. Sueldos y Salarios" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="6" dataCellStyle="Moneda">
+    <tableColumn id="10" xr3:uid="{DC8949A3-6322-4E9B-904A-8266A7B5B3F9}" name="Ret. Sueldos y Salarios" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="7" dataCellStyle="Moneda">
       <calculatedColumnFormula>+[2]calculos!$E$204</calculatedColumnFormula>
       <totalsRowFormula>SUM(F10:F21)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{84C86F89-5637-48CB-B31C-1D0E2CBBD8B5}" name="Ret. ISR Asimilados" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="5" dataCellStyle="Moneda">
+    <tableColumn id="11" xr3:uid="{84C86F89-5637-48CB-B31C-1D0E2CBBD8B5}" name="Ret. ISR Asimilados" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="6" dataCellStyle="Moneda">
       <calculatedColumnFormula>+[2]calculos!$F$201</calculatedColumnFormula>
       <totalsRowFormula>SUM(G10:G21)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{ECE95D63-F257-49C9-96D5-D47CE02D3CB8}" name="Ret.Serv. Prof. Y arrendamiento" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="4" dataCellStyle="Moneda">
+    <tableColumn id="5" xr3:uid="{ECE95D63-F257-49C9-96D5-D47CE02D3CB8}" name="Ret. ISR Serv. Prof." totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="5" dataCellStyle="Moneda">
       <calculatedColumnFormula>+[2]calculos!$E$238</calculatedColumnFormula>
       <totalsRowFormula>SUM(H10:H21)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FFEBDA6F-E82D-48FE-8485-291864632474}" name="Retenciones IVA" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="3" dataCellStyle="Moneda">
-      <calculatedColumnFormula>+[2]calculos!$E$254</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{D5603899-BC3D-4BB8-A405-D1787A45CA61}" name="Ret. ISR  Arrendamiento" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="4" dataCellStyle="Moneda">
+      <calculatedColumnFormula>+[2]calculos!$E$235</calculatedColumnFormula>
       <totalsRowFormula>SUM(I10:I21)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FC73E677-3B73-45A3-929B-01EBE1027105}" name="Imp S/ Nomina" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="6" xr3:uid="{FFEBDA6F-E82D-48FE-8485-291864632474}" name="Retenciones IVA" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="3" dataCellStyle="Moneda">
+      <calculatedColumnFormula>+[2]calculos!$E$254</calculatedColumnFormula>
       <totalsRowFormula>SUM(J10:J21)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{47822A07-2B8A-42FE-B9B0-FB2707E12FA4}" name="Imp S/ Hospedaje" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="1" dataCellStyle="Moneda">
-      <calculatedColumnFormula>+[2]calculos!$E$210</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{FC73E677-3B73-45A3-929B-01EBE1027105}" name="Imp S/ Nomina" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="2" dataCellStyle="Moneda">
       <totalsRowFormula>SUM(K10:K21)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E18BE873-3F20-4F6C-AC34-FF85318AA6C0}" name="Total de Contrinuciones" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="0" dataCellStyle="Moneda">
+    <tableColumn id="8" xr3:uid="{47822A07-2B8A-42FE-B9B0-FB2707E12FA4}" name="Imp S/ Hospedaje" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="1" dataCellStyle="Moneda">
+      <calculatedColumnFormula>+[2]calculos!$E$210</calculatedColumnFormula>
+      <totalsRowFormula>SUM(L10:L21)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E18BE873-3F20-4F6C-AC34-FF85318AA6C0}" name="Total de Contrinuciones" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="0" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUM(Tabla1[[#This Row],[ISR Propio]:[Imp S/ Hospedaje]])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(L10:L21)</totalsRowFormula>
+      <totalsRowFormula>SUM(M10:M21)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1916,43 +2033,44 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L25"/>
+  <dimension ref="B1:M25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="8" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="4" t="s">
+    <row r="1" spans="2:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="29">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="33">
         <f ca="1">TODAY()</f>
-        <v>44917</v>
-      </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+        <v>44966</v>
+      </c>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1963,55 +2081,58 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>+[1]empresa!$B$2</f>
-        <v xml:space="preserve"> RST080530H18</v>
+        <v xml:space="preserve"> GAS150806T54</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="19" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="27" t="str">
+      <c r="L4" s="31" t="str">
         <f>+[1]empresa!$H$2</f>
         <v>Personas Morales Titulo II</v>
       </c>
-      <c r="L4" s="28"/>
+      <c r="M4" s="32"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27" t="str">
+      <c r="C5" s="31" t="str">
         <f>+[1]empresa!$C$2</f>
-        <v>LA RIBERA STORAGE S DE RL DE CV</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="19" t="s">
+        <v>GURGO Y ASOCIADOS. S.C.</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="11">
+      <c r="L5" s="11">
         <f>+[1]empresa!$L$2</f>
-        <v>2022</v>
-      </c>
-      <c r="L5" s="12"/>
+        <v>2019</v>
+      </c>
+      <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -2020,16 +2141,17 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="J6" s="10"/>
+      <c r="K6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
         <f>+[1]empresa!$M$2</f>
-        <v>2021</v>
-      </c>
-      <c r="L6" s="12"/>
+        <v>2019</v>
+      </c>
+      <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -2040,36 +2162,38 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="E8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="K8" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="L8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="25" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="9" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>24</v>
       </c>
@@ -2083,28 +2207,31 @@
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="M9" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2118,11 +2245,11 @@
       </c>
       <c r="E10" s="21">
         <f>+[2]calculos!$E$171</f>
-        <v>0</v>
+        <v>81617.676800000001</v>
       </c>
       <c r="F10" s="21">
         <f>+[2]calculos!$E$197</f>
-        <v>589.07230000000004</v>
+        <v>1064.7663</v>
       </c>
       <c r="G10" s="21">
         <f>+[2]calculos!$E$201</f>
@@ -2130,26 +2257,30 @@
       </c>
       <c r="H10" s="21">
         <f>+[2]calculos!$E$231</f>
-        <v>0</v>
+        <v>54929.437400000003</v>
       </c>
       <c r="I10" s="21">
+        <f>+[2]calculos!$E$235</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="21">
         <f>+[2]calculos!$E$254</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="21">
+        <v>58625.784099999997</v>
+      </c>
+      <c r="K10" s="21">
         <f>+[2]calculos!$E$266</f>
-        <v>424.3793</v>
-      </c>
-      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+      <c r="L10" s="21">
         <f>+[2]calculos!$E$278</f>
-        <v>1857.1741</v>
-      </c>
-      <c r="L10" s="22">
+        <v>0</v>
+      </c>
+      <c r="M10" s="22">
         <f>SUM(Tabla1[[#This Row],[ISR Propio]:[Imp S/ Hospedaje]])</f>
-        <v>2870.6257000000001</v>
+        <v>196237.66459999999</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2163,11 +2294,11 @@
       </c>
       <c r="E11" s="21">
         <f>+[2]calculos!$F$171</f>
-        <v>0</v>
+        <v>86.220699999999994</v>
       </c>
       <c r="F11" s="21">
         <f>+[2]calculos!$F$197</f>
-        <v>251.4083</v>
+        <v>690.44290000000001</v>
       </c>
       <c r="G11" s="21">
         <f>+[2]calculos!$F$201</f>
@@ -2175,26 +2306,30 @@
       </c>
       <c r="H11" s="21">
         <f>+[2]calculos!$F$231</f>
-        <v>0</v>
+        <v>20630.541799999999</v>
       </c>
       <c r="I11" s="21">
+        <f>+[2]calculos!$F$235</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="21">
         <f>+[2]calculos!$F$254</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="21">
+        <v>22005.774700000002</v>
+      </c>
+      <c r="K11" s="21">
         <f>+[2]calculos!$F$266</f>
-        <v>377.56099999999998</v>
-      </c>
-      <c r="K11" s="21">
+        <v>0</v>
+      </c>
+      <c r="L11" s="21">
         <f>+[2]calculos!$F$278</f>
-        <v>1351.3185000000001</v>
-      </c>
-      <c r="L11" s="22">
+        <v>0</v>
+      </c>
+      <c r="M11" s="22">
         <f>SUM(Tabla1[[#This Row],[ISR Propio]:[Imp S/ Hospedaje]])</f>
-        <v>1980.2878000000001</v>
+        <v>43412.980100000001</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2208,11 +2343,11 @@
       </c>
       <c r="E12" s="21">
         <f>+[2]calculos!$G$171</f>
-        <v>0</v>
+        <v>45198.777900000001</v>
       </c>
       <c r="F12" s="21">
         <f>+[2]calculos!$G$197</f>
-        <v>567.62490000000003</v>
+        <v>1174.3661</v>
       </c>
       <c r="G12" s="21">
         <f>+[2]calculos!$G$201</f>
@@ -2220,26 +2355,30 @@
       </c>
       <c r="H12" s="21">
         <f>+[2]calculos!$G$231</f>
-        <v>0</v>
+        <v>18429.2412</v>
       </c>
       <c r="I12" s="21">
+        <f>+[2]calculos!$G$235</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="21">
         <f>+[2]calculos!$G$254</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="21">
+        <v>19657.769</v>
+      </c>
+      <c r="K12" s="21">
         <f>+[2]calculos!$G$266</f>
-        <v>411.03829999999999</v>
-      </c>
-      <c r="K12" s="21">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21">
         <f>+[2]calculos!$G$278</f>
-        <v>2288.4584</v>
-      </c>
-      <c r="L12" s="22">
+        <v>0</v>
+      </c>
+      <c r="M12" s="22">
         <f>SUM(Tabla1[[#This Row],[ISR Propio]:[Imp S/ Hospedaje]])</f>
-        <v>3267.1215999999999</v>
+        <v>84460.154200000004</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2253,11 +2392,11 @@
       </c>
       <c r="E13" s="21">
         <f>+[2]calculos!$H$171</f>
-        <v>0</v>
+        <v>23910.609499999999</v>
       </c>
       <c r="F13" s="21">
         <f>+[2]calculos!$H$197</f>
-        <v>344.4033</v>
+        <v>7217.2808000000005</v>
       </c>
       <c r="G13" s="21">
         <f>+[2]calculos!$H$201</f>
@@ -2265,26 +2404,30 @@
       </c>
       <c r="H13" s="21">
         <f>+[2]calculos!$H$231</f>
-        <v>0</v>
+        <v>34984.024899999997</v>
       </c>
       <c r="I13" s="21">
+        <f>+[2]calculos!$H$235</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="21">
         <f>+[2]calculos!$H$254</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="21">
+        <v>37316.078800000003</v>
+      </c>
+      <c r="K13" s="21">
         <f>+[2]calculos!$H$266</f>
-        <v>392.6318</v>
-      </c>
-      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+      <c r="L13" s="21">
         <f>+[2]calculos!$H$278</f>
-        <v>2865.9501</v>
-      </c>
-      <c r="L13" s="22">
+        <v>0</v>
+      </c>
+      <c r="M13" s="22">
         <f>SUM(Tabla1[[#This Row],[ISR Propio]:[Imp S/ Hospedaje]])</f>
-        <v>3602.9852000000001</v>
+        <v>103427.99399999999</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -2298,11 +2441,11 @@
       </c>
       <c r="E14" s="21">
         <f>+[2]calculos!$I$171</f>
-        <v>0</v>
+        <v>13889.177600000001</v>
       </c>
       <c r="F14" s="21">
         <f>+[2]calculos!$I$197</f>
-        <v>339.74450000000002</v>
+        <v>1152.539</v>
       </c>
       <c r="G14" s="21">
         <f>+[2]calculos!$I$201</f>
@@ -2310,26 +2453,30 @@
       </c>
       <c r="H14" s="21">
         <f>+[2]calculos!$I$231</f>
-        <v>0</v>
+        <v>11840.235500000001</v>
       </c>
       <c r="I14" s="21">
+        <f>+[2]calculos!$I$235</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="21">
         <f>+[2]calculos!$I$254</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="21">
+        <v>12651.4962</v>
+      </c>
+      <c r="K14" s="21">
         <f>+[2]calculos!$I$266</f>
-        <v>387.8501</v>
-      </c>
-      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="21">
         <f>+[2]calculos!$I$278</f>
-        <v>3081.4969000000001</v>
-      </c>
-      <c r="L14" s="22">
+        <v>0</v>
+      </c>
+      <c r="M14" s="22">
         <f>SUM(Tabla1[[#This Row],[ISR Propio]:[Imp S/ Hospedaje]])</f>
-        <v>3809.0915</v>
+        <v>39533.448300000004</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -2343,11 +2490,11 @@
       </c>
       <c r="E15" s="21">
         <f>+[2]calculos!$J$171</f>
-        <v>0</v>
+        <v>13609.628000000001</v>
       </c>
       <c r="F15" s="21">
         <f>+[2]calculos!$J$197</f>
-        <v>334.01729999999998</v>
+        <v>1036.0111999999999</v>
       </c>
       <c r="G15" s="21">
         <f>+[2]calculos!$J$201</f>
@@ -2355,26 +2502,30 @@
       </c>
       <c r="H15" s="21">
         <f>+[2]calculos!$J$231</f>
-        <v>0</v>
+        <v>15692.823899999999</v>
       </c>
       <c r="I15" s="21">
+        <f>+[2]calculos!$J$235</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="21">
         <f>+[2]calculos!$J$254</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="21">
+        <v>16738.8586</v>
+      </c>
+      <c r="K15" s="21">
         <f>+[2]calculos!$J$266</f>
-        <v>382.05579999999998</v>
-      </c>
-      <c r="K15" s="21">
+        <v>0</v>
+      </c>
+      <c r="L15" s="21">
         <f>+[2]calculos!$J$278</f>
-        <v>2973.8892999999998</v>
-      </c>
-      <c r="L15" s="22">
+        <v>0</v>
+      </c>
+      <c r="M15" s="22">
         <f>SUM(Tabla1[[#This Row],[ISR Propio]:[Imp S/ Hospedaje]])</f>
-        <v>3689.9623999999999</v>
+        <v>47077.3217</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -2388,38 +2539,42 @@
       </c>
       <c r="E16" s="21">
         <f>+[2]calculos!$K$171</f>
-        <v>0</v>
+        <v>21748.3884</v>
       </c>
       <c r="F16" s="21">
         <f>+[2]calculos!$K$197</f>
-        <v>532.98019999999997</v>
+        <v>1123.0779</v>
       </c>
       <c r="G16" s="21">
         <f>+[2]calculos!$K$201</f>
-        <v>408.32010000000002</v>
+        <v>0</v>
       </c>
       <c r="H16" s="21">
         <f>+[2]calculos!$K$231</f>
-        <v>2645.2334999999998</v>
+        <v>20310.458999999999</v>
       </c>
       <c r="I16" s="21">
+        <f>+[2]calculos!$K$235</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="21">
         <f>+[2]calculos!$K$254</f>
-        <v>2821.5868999999998</v>
-      </c>
-      <c r="J16" s="21">
+        <v>21669.989099999999</v>
+      </c>
+      <c r="K16" s="21">
         <f>+[2]calculos!$K$266</f>
-        <v>522.33920000000001</v>
-      </c>
-      <c r="K16" s="21">
+        <v>0</v>
+      </c>
+      <c r="L16" s="21">
         <f>+[2]calculos!$K$278</f>
-        <v>3551.8456999999999</v>
-      </c>
-      <c r="L16" s="22">
+        <v>0</v>
+      </c>
+      <c r="M16" s="22">
         <f>SUM(Tabla1[[#This Row],[ISR Propio]:[Imp S/ Hospedaje]])</f>
-        <v>10482.3056</v>
+        <v>64851.914400000001</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2433,38 +2588,42 @@
       </c>
       <c r="E17" s="21">
         <f>+[2]calculos!$L$171</f>
-        <v>0</v>
+        <v>67043.106199999995</v>
       </c>
       <c r="F17" s="21">
         <f>+[2]calculos!$L$197</f>
-        <v>8.0404</v>
+        <v>1111.0780999999999</v>
       </c>
       <c r="G17" s="21">
         <f>+[2]calculos!$M$201</f>
-        <v>790.83600000000001</v>
+        <v>0</v>
       </c>
       <c r="H17" s="21">
         <f>+[2]calculos!$L$231</f>
-        <v>0</v>
+        <v>32457.625199999999</v>
       </c>
       <c r="I17" s="21">
+        <f>+[2]calculos!$L$235</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="21">
         <f>+[2]calculos!$L$254</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="21">
+        <v>34621.274299999997</v>
+      </c>
+      <c r="K17" s="21">
         <f>+[2]calculos!$L$266</f>
-        <v>277.02210000000002</v>
-      </c>
-      <c r="K17" s="21">
+        <v>0</v>
+      </c>
+      <c r="L17" s="21">
         <f>+[2]calculos!$L$278</f>
-        <v>1237.3982000000001</v>
-      </c>
-      <c r="L17" s="22">
+        <v>0</v>
+      </c>
+      <c r="M17" s="22">
         <f>SUM(Tabla1[[#This Row],[ISR Propio]:[Imp S/ Hospedaje]])</f>
-        <v>2313.2966999999999</v>
+        <v>135233.08379999999</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -2478,38 +2637,42 @@
       </c>
       <c r="E18" s="21">
         <f>+[2]calculos!$M$171</f>
-        <v>0</v>
+        <v>13160.8236</v>
       </c>
       <c r="F18" s="21">
         <f>+[2]calculos!$M$197</f>
-        <v>0</v>
+        <v>996.46100000000001</v>
       </c>
       <c r="G18" s="21">
         <f>+[2]calculos!$N$201</f>
-        <v>387.34570000000002</v>
+        <v>0</v>
       </c>
       <c r="H18" s="21">
         <f>+[2]calculos!$M$231</f>
-        <v>0</v>
+        <v>18338.8822</v>
       </c>
       <c r="I18" s="21">
+        <f>+[2]calculos!$M$235</f>
+        <v>3018.7372</v>
+      </c>
+      <c r="J18" s="21">
         <f>+[2]calculos!$M$254</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="21">
+        <v>22788.465400000001</v>
+      </c>
+      <c r="K18" s="21">
         <f>+[2]calculos!$M$266</f>
-        <v>138.04060000000001</v>
-      </c>
-      <c r="K18" s="21">
+        <v>0</v>
+      </c>
+      <c r="L18" s="21">
         <f>+[2]calculos!$M$278</f>
-        <v>3181.8892999999998</v>
-      </c>
-      <c r="L18" s="22">
+        <v>0</v>
+      </c>
+      <c r="M18" s="22">
         <f>SUM(Tabla1[[#This Row],[ISR Propio]:[Imp S/ Hospedaje]])</f>
-        <v>3707.2755999999999</v>
+        <v>58303.369400000003</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -2523,38 +2686,42 @@
       </c>
       <c r="E19" s="21">
         <f>+[2]calculos!$N$171</f>
-        <v>0</v>
+        <v>69458.173999999999</v>
       </c>
       <c r="F19" s="21">
         <f>+[2]calculos!$N$197</f>
-        <v>0</v>
+        <v>1077.9935</v>
       </c>
       <c r="G19" s="21">
         <f>+[2]calculos!$O$201</f>
-        <v>1134.8623</v>
+        <v>0</v>
       </c>
       <c r="H19" s="21">
         <f>+[2]calculos!$N$231</f>
-        <v>0</v>
+        <v>49124.339200000002</v>
       </c>
       <c r="I19" s="21">
+        <f>+[2]calculos!$N$235</f>
+        <v>2969.0073000000002</v>
+      </c>
+      <c r="J19" s="21">
         <f>+[2]calculos!$N$254</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="21">
+        <v>55571.184699999998</v>
+      </c>
+      <c r="K19" s="21">
         <f>+[2]calculos!$N$266</f>
-        <v>140.0283</v>
-      </c>
-      <c r="K19" s="21">
+        <v>0</v>
+      </c>
+      <c r="L19" s="21">
         <f>+[2]calculos!$N$278</f>
-        <v>2731.5958000000001</v>
-      </c>
-      <c r="L19" s="22">
+        <v>0</v>
+      </c>
+      <c r="M19" s="22">
         <f>SUM(Tabla1[[#This Row],[ISR Propio]:[Imp S/ Hospedaje]])</f>
-        <v>4006.4863999999998</v>
+        <v>178200.69870000001</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -2568,38 +2735,42 @@
       </c>
       <c r="E20" s="21">
         <f>+[2]calculos!$O$171</f>
-        <v>0</v>
+        <v>151770.85800000001</v>
       </c>
       <c r="F20" s="21">
         <f>+[2]calculos!$O$197</f>
-        <v>0</v>
+        <v>969.03710000000001</v>
       </c>
       <c r="G20" s="21">
         <f>+[2]calculos!$P$201</f>
-        <v>372.23590000000002</v>
+        <v>0</v>
       </c>
       <c r="H20" s="21">
         <f>+[2]calculos!$O$231</f>
-        <v>0</v>
+        <v>18407.787400000001</v>
       </c>
       <c r="I20" s="21">
+        <f>+[2]calculos!$O$235</f>
+        <v>2935.6578</v>
+      </c>
+      <c r="J20" s="21">
         <f>+[2]calculos!$O$254</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="21">
+        <v>22766.2016</v>
+      </c>
+      <c r="K20" s="21">
         <f>+[2]calculos!$O$266</f>
-        <v>507.0718</v>
-      </c>
-      <c r="K20" s="21">
+        <v>0</v>
+      </c>
+      <c r="L20" s="21">
         <f>+[2]calculos!$O$278</f>
-        <v>4234.8782000000001</v>
-      </c>
-      <c r="L20" s="22">
+        <v>0</v>
+      </c>
+      <c r="M20" s="22">
         <f>SUM(Tabla1[[#This Row],[ISR Propio]:[Imp S/ Hospedaje]])</f>
-        <v>5114.1859000000004</v>
+        <v>196849.54189999998</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
         <v>16</v>
       </c>
@@ -2613,11 +2784,11 @@
       </c>
       <c r="E21" s="21">
         <f>+[2]calculos!$P$171</f>
-        <v>0</v>
+        <v>28477.675800000001</v>
       </c>
       <c r="F21" s="21">
         <f>+[2]calculos!$P$197</f>
-        <v>0</v>
+        <v>1303.7076</v>
       </c>
       <c r="G21" s="21">
         <f>+[2]calculos!$Q$201</f>
@@ -2625,103 +2796,112 @@
       </c>
       <c r="H21" s="21">
         <f>+[2]calculos!$P$231</f>
-        <v>0</v>
+        <v>24271.841799999998</v>
       </c>
       <c r="I21" s="21">
+        <f>+[2]calculos!$P$235</f>
+        <v>2902.3083999999999</v>
+      </c>
+      <c r="J21" s="21">
         <f>+[2]calculos!$P$254</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="23">
+        <v>28985.647499999999</v>
+      </c>
+      <c r="K21" s="23">
         <f>+[2]calculos!$P$266</f>
-        <v>257.99160000000001</v>
-      </c>
-      <c r="K21" s="21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="21">
         <f>+[2]calculos!$P$278</f>
-        <v>2762.8373999999999</v>
-      </c>
-      <c r="L21" s="24">
+        <v>0</v>
+      </c>
+      <c r="M21" s="24">
         <f>SUM(Tabla1[[#This Row],[ISR Propio]:[Imp S/ Hospedaje]])</f>
-        <v>3020.8289999999997</v>
+        <v>85941.181100000002</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="32">
+        <v>43</v>
+      </c>
+      <c r="C22" s="30">
         <f>SUM(C10:C21)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="32">
-        <f t="shared" ref="D22:L22" si="0">SUM(D10:D21)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="32">
+      <c r="D22" s="30">
+        <f t="shared" ref="D22:M22" si="0">SUM(D10:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="32">
+        <v>529971.1165</v>
+      </c>
+      <c r="F22" s="30">
         <f t="shared" si="0"/>
-        <v>2967.2912000000001</v>
-      </c>
-      <c r="G22" s="32">
+        <v>18916.761500000004</v>
+      </c>
+      <c r="G22" s="30">
         <f t="shared" si="0"/>
-        <v>3093.6000000000004</v>
-      </c>
-      <c r="H22" s="32">
+        <v>0</v>
+      </c>
+      <c r="H22" s="30">
         <f t="shared" si="0"/>
-        <v>2645.2334999999998</v>
-      </c>
-      <c r="I22" s="32">
+        <v>319417.23949999997</v>
+      </c>
+      <c r="I22" s="30">
         <f t="shared" si="0"/>
-        <v>2821.5868999999998</v>
-      </c>
-      <c r="J22" s="32">
+        <v>11825.710700000001</v>
+      </c>
+      <c r="J22" s="30">
         <f t="shared" si="0"/>
-        <v>4218.0099</v>
-      </c>
-      <c r="K22" s="32">
+        <v>353398.52400000003</v>
+      </c>
+      <c r="K22" s="30">
         <f t="shared" si="0"/>
-        <v>32118.731899999999</v>
-      </c>
-      <c r="L22" s="32">
+        <v>0</v>
+      </c>
+      <c r="L22" s="30">
         <f t="shared" si="0"/>
-        <v>47864.453399999999</v>
+        <v>0</v>
+      </c>
+      <c r="M22" s="30">
+        <f t="shared" si="0"/>
+        <v>1233529.3522000001</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
-        <v>41</v>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="F24" s="31" t="s">
-        <v>42</v>
+      <c r="F24" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="K24" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="L24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
         <v>31</v>
       </c>
-      <c r="F25" t="s">
+      <c r="L25" t="s">
         <v>32</v>
-      </c>
-      <c r="K25" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
